--- a/工作笔记.xlsx
+++ b/工作笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="环境帐号" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
   <si>
     <t>svn:https://192.168.1.131/svn/AZTCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,6 +1481,22 @@
   <si>
     <t>github</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>http://www.ksyun.com/</t>
+  </si>
+  <si>
+    <t>登录邮箱：eddie.to@azt-china.com</t>
+  </si>
+  <si>
+    <t>   初始密码：Azt@2015</t>
   </si>
 </sst>
 </file>
@@ -1822,6 +1838,46 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="20754975"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\QQ\Temp\%W@GJ$ACOF(TYDYECOKVDYB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23107650"/>
           <a:ext cx="190500" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2382,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2807,6 +2863,31 @@
     <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3127,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
